--- a/99_チーム内打合せ用（総合演習）/データベース設計.xlsx
+++ b/99_チーム内打合せ用（総合演習）/データベース設計.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
   <si>
     <t>役職名</t>
     <rPh sb="2" eb="3">
@@ -254,10 +254,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>INTEGER</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -354,22 +350,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>例）役員、一般社員、派遣社員・パート</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヤクイン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>base</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -454,10 +434,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>kanriFlg</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>registrationDateTime</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -466,21 +442,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>0～6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DATETIME</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1：男性、2：女性</t>
-    <rPh sb="2" eb="4">
-      <t>ダンセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョセイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -585,6 +547,52 @@
   </si>
   <si>
     <t>0　派遣社員・パート(社員番号を持たない)</t>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>090-xxxx-xxxx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男、女</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1～6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例）役員、一般社員</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>adminFlag</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TINYINT</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1732,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1784,23 +1792,23 @@
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -1811,17 +1819,17 @@
         <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="4"/>
     </row>
@@ -1832,17 +1840,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="4"/>
     </row>
@@ -1853,18 +1861,16 @@
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -1874,18 +1880,20 @@
         <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7">
         <v>1</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="I8" s="4" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -1895,20 +1903,20 @@
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="7">
         <v>3</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -1918,20 +1926,18 @@
         <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7">
         <v>2</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -1941,10 +1947,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7">
         <v>1</v>
@@ -1952,7 +1958,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -1962,10 +1968,10 @@
         <v>16</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="7">
         <v>20</v>
@@ -1981,18 +1987,16 @@
         <v>15</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7">
         <v>10</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -2002,17 +2006,19 @@
         <v>14</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
@@ -2021,16 +2027,18 @@
         <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -2040,15 +2048,15 @@
         <v>12</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="4"/>
     </row>
@@ -2094,28 +2102,28 @@
         <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="7">
         <v>1</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -2125,20 +2133,20 @@
         <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="7">
         <v>10</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -2181,28 +2189,28 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="7">
         <v>3</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -2212,20 +2220,20 @@
         <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -2235,20 +2243,20 @@
         <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7">
         <v>1</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2291,28 +2299,28 @@
         <v>5</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7">
         <v>2</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2322,20 +2330,20 @@
         <v>3</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" s="7">
         <v>20</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -2378,28 +2386,28 @@
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" s="7">
         <v>1</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -2409,20 +2417,20 @@
         <v>0</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2453,7 +2461,7 @@
   <sheetData>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>9</v>
@@ -2574,80 +2582,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
@@ -2657,52 +2665,52 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
@@ -2712,37 +2720,37 @@
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/99_チーム内打合せ用（総合演習）/データベース設計.xlsx
+++ b/99_チーム内打合せ用（総合演習）/データベース設計.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="110">
   <si>
     <t>役職名</t>
     <rPh sb="2" eb="3">
@@ -592,6 +592,10 @@
   </si>
   <si>
     <t>TINYINT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DEFAULT 0</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1741,7 +1745,7 @@
   <dimension ref="A3:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -2036,7 +2040,9 @@
         <v>1</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="I15" s="4" t="s">
         <v>38</v>
       </c>
